--- a/experiment_results/SBFL_ONLY/Elevator/2Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Elevator/2Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -18790,10 +18790,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>403</v>
       </c>
       <c r="D2">
-        <v>13.61607142857143</v>
+        <v>89.95535714285714</v>
       </c>
       <c r="E2">
         <v>448</v>
@@ -18804,10 +18804,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
         <v>448</v>
@@ -18821,10 +18821,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="D4">
-        <v>4.464285714285714</v>
+        <v>77.45535714285714</v>
       </c>
       <c r="E4">
         <v>448</v>
@@ -18835,10 +18835,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="D5">
-        <v>23.88392857142857</v>
+        <v>51.11607142857143</v>
       </c>
       <c r="E5">
         <v>448</v>
@@ -18852,10 +18852,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2.008928571428572</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E6">
         <v>448</v>
@@ -18866,10 +18866,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="D7">
-        <v>15.40178571428572</v>
+        <v>72.99107142857143</v>
       </c>
       <c r="E7">
         <v>448</v>
@@ -18883,10 +18883,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>395</v>
       </c>
       <c r="D8">
-        <v>3.125</v>
+        <v>88.16964285714286</v>
       </c>
       <c r="E8">
         <v>448</v>
@@ -18897,10 +18897,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D9">
-        <v>23.66071428571428</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>448</v>
@@ -18914,10 +18914,10 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="D10">
-        <v>1.116071428571429</v>
+        <v>47.54464285714285</v>
       </c>
       <c r="E10">
         <v>448</v>
@@ -18928,10 +18928,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="D11">
-        <v>28.125</v>
+        <v>50.22321428571429</v>
       </c>
       <c r="E11">
         <v>448</v>
@@ -18945,10 +18945,10 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E12">
         <v>448</v>
@@ -18959,10 +18959,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="D13">
-        <v>50.66964285714286</v>
+        <v>72.76785714285714</v>
       </c>
       <c r="E13">
         <v>448</v>
@@ -18976,10 +18976,10 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="D14">
-        <v>51.11607142857143</v>
+        <v>90.40178571428571</v>
       </c>
       <c r="E14">
         <v>448</v>
@@ -18990,10 +18990,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E15">
         <v>448</v>
@@ -19007,10 +19007,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="D16">
-        <v>29.91071428571428</v>
+        <v>78.125</v>
       </c>
       <c r="E16">
         <v>448</v>
@@ -19021,10 +19021,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="D17">
-        <v>7.366071428571429</v>
+        <v>44.86607142857143</v>
       </c>
       <c r="E17">
         <v>448</v>
@@ -19038,10 +19038,10 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>399</v>
       </c>
       <c r="D18">
-        <v>6.25</v>
+        <v>89.0625</v>
       </c>
       <c r="E18">
         <v>448</v>
@@ -19052,10 +19052,10 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D19">
-        <v>2.232142857142857</v>
+        <v>93.75</v>
       </c>
       <c r="E19">
         <v>448</v>
@@ -19069,10 +19069,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E20">
         <v>448</v>
@@ -19083,10 +19083,10 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="D21">
-        <v>15.17857142857143</v>
+        <v>72.99107142857143</v>
       </c>
       <c r="E21">
         <v>448</v>
@@ -19100,10 +19100,10 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D22">
-        <v>0.6696428571428571</v>
+        <v>33.25892857142857</v>
       </c>
       <c r="E22">
         <v>448</v>
@@ -19114,10 +19114,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="D23">
-        <v>7.589285714285714</v>
+        <v>51.5625</v>
       </c>
       <c r="E23">
         <v>448</v>
@@ -19131,10 +19131,10 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E24">
         <v>448</v>
@@ -19145,10 +19145,10 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="D25">
-        <v>23.4375</v>
+        <v>55.58035714285714</v>
       </c>
       <c r="E25">
         <v>448</v>
@@ -19162,10 +19162,10 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="D26">
-        <v>1.116071428571429</v>
+        <v>93.75</v>
       </c>
       <c r="E26">
         <v>448</v>
@@ -19176,10 +19176,10 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="D27">
-        <v>44.64285714285715</v>
+        <v>52.00892857142857</v>
       </c>
       <c r="E27">
         <v>448</v>
@@ -19193,10 +19193,10 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>403</v>
       </c>
       <c r="D28">
-        <v>13.83928571428572</v>
+        <v>89.95535714285714</v>
       </c>
       <c r="E28">
         <v>448</v>
@@ -19207,10 +19207,10 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2.008928571428572</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E29">
         <v>448</v>
@@ -19224,10 +19224,10 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="D30">
-        <v>4.6875</v>
+        <v>88.16964285714286</v>
       </c>
       <c r="E30">
         <v>448</v>
@@ -19238,10 +19238,10 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="D31">
-        <v>6.696428571428571</v>
+        <v>93.75</v>
       </c>
       <c r="E31">
         <v>448</v>
@@ -19255,10 +19255,10 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>391</v>
       </c>
       <c r="D32">
-        <v>4.464285714285714</v>
+        <v>87.27678571428571</v>
       </c>
       <c r="E32">
         <v>448</v>
@@ -19269,10 +19269,10 @@
         <v>16</v>
       </c>
       <c r="C33">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="D33">
-        <v>17.41071428571428</v>
+        <v>47.54464285714285</v>
       </c>
       <c r="E33">
         <v>448</v>
@@ -19300,10 +19300,10 @@
         <v>26</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>3.794642857142857</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E35">
         <v>448</v>
@@ -19317,10 +19317,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="D36">
-        <v>1.339285714285714</v>
+        <v>77.45535714285714</v>
       </c>
       <c r="E36">
         <v>448</v>
@@ -19331,10 +19331,10 @@
         <v>26</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="D37">
-        <v>9.375</v>
+        <v>33.03571428571428</v>
       </c>
       <c r="E37">
         <v>448</v>
@@ -19348,10 +19348,10 @@
         <v>22</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>399</v>
       </c>
       <c r="D38">
-        <v>0.4464285714285714</v>
+        <v>89.0625</v>
       </c>
       <c r="E38">
         <v>448</v>
@@ -19362,10 +19362,10 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="D39">
-        <v>23.88392857142857</v>
+        <v>51.11607142857143</v>
       </c>
       <c r="E39">
         <v>448</v>
@@ -19379,10 +19379,10 @@
         <v>22</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>397</v>
       </c>
       <c r="D40">
-        <v>0.4464285714285714</v>
+        <v>88.61607142857143</v>
       </c>
       <c r="E40">
         <v>448</v>
@@ -19393,10 +19393,10 @@
         <v>13</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="D41">
-        <v>5.357142857142857</v>
+        <v>71.65178571428571</v>
       </c>
       <c r="E41">
         <v>448</v>
@@ -19410,10 +19410,10 @@
         <v>22</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>399</v>
       </c>
       <c r="D42">
-        <v>2.232142857142857</v>
+        <v>89.0625</v>
       </c>
       <c r="E42">
         <v>448</v>
@@ -19424,10 +19424,10 @@
         <v>26</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="D43">
-        <v>9.375</v>
+        <v>33.03571428571428</v>
       </c>
       <c r="E43">
         <v>448</v>
@@ -19441,10 +19441,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="D44">
-        <v>17.63392857142857</v>
+        <v>77.23214285714286</v>
       </c>
       <c r="E44">
         <v>448</v>
@@ -19455,10 +19455,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E45">
         <v>448</v>
@@ -19472,10 +19472,10 @@
         <v>23</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="D46">
-        <v>1.116071428571429</v>
+        <v>93.75</v>
       </c>
       <c r="E46">
         <v>448</v>
@@ -19486,10 +19486,10 @@
         <v>26</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D47">
-        <v>4.017857142857143</v>
+        <v>31.91964285714285</v>
       </c>
       <c r="E47">
         <v>448</v>
@@ -19503,10 +19503,10 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="D48">
-        <v>17.85714285714286</v>
+        <v>77.23214285714286</v>
       </c>
       <c r="E48">
         <v>448</v>
@@ -19517,10 +19517,10 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>2.232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E49">
         <v>448</v>
@@ -19534,10 +19534,10 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="D50">
-        <v>16.07142857142857</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="E50">
         <v>448</v>
@@ -19548,10 +19548,10 @@
         <v>13</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="D51">
-        <v>5.357142857142857</v>
+        <v>70.98214285714286</v>
       </c>
       <c r="E51">
         <v>448</v>
@@ -19565,10 +19565,10 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="D52">
-        <v>6.696428571428571</v>
+        <v>77.45535714285714</v>
       </c>
       <c r="E52">
         <v>448</v>
@@ -19579,10 +19579,10 @@
         <v>23</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D53">
-        <v>2.232142857142857</v>
+        <v>93.75</v>
       </c>
       <c r="E53">
         <v>448</v>
@@ -19596,10 +19596,10 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>401</v>
       </c>
       <c r="D54">
-        <v>4.910714285714286</v>
+        <v>89.50892857142857</v>
       </c>
       <c r="E54">
         <v>448</v>
@@ -19610,10 +19610,10 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="D55">
-        <v>7.142857142857142</v>
+        <v>71.20535714285714</v>
       </c>
       <c r="E55">
         <v>448</v>
@@ -19627,10 +19627,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="D56">
-        <v>60.04464285714286</v>
+        <v>77.90178571428571</v>
       </c>
       <c r="E56">
         <v>448</v>
@@ -19641,10 +19641,10 @@
         <v>18</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E57">
         <v>448</v>
@@ -19658,10 +19658,10 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="D58">
-        <v>0.4464285714285714</v>
+        <v>88.16964285714286</v>
       </c>
       <c r="E58">
         <v>448</v>
@@ -19672,10 +19672,10 @@
         <v>26</v>
       </c>
       <c r="C59">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="D59">
-        <v>23.4375</v>
+        <v>33.70535714285715</v>
       </c>
       <c r="E59">
         <v>448</v>
@@ -19689,10 +19689,10 @@
         <v>16</v>
       </c>
       <c r="C60">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D60">
-        <v>22.54464285714286</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="E60">
         <v>448</v>
@@ -19703,10 +19703,10 @@
         <v>13</v>
       </c>
       <c r="C61">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="D61">
-        <v>25.66964285714285</v>
+        <v>67.85714285714286</v>
       </c>
       <c r="E61">
         <v>448</v>
@@ -19734,10 +19734,10 @@
         <v>26</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>12.5</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E63">
         <v>448</v>
@@ -19765,10 +19765,10 @@
         <v>26</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>3.348214285714286</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E65">
         <v>448</v>
@@ -19782,10 +19782,10 @@
         <v>22</v>
       </c>
       <c r="C66">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="D66">
-        <v>18.75</v>
+        <v>91.29464285714286</v>
       </c>
       <c r="E66">
         <v>448</v>
@@ -19796,10 +19796,10 @@
         <v>12</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>2.232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E67">
         <v>448</v>
@@ -19813,10 +19813,10 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>0.8928571428571428</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E68">
         <v>448</v>
@@ -19827,10 +19827,10 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="D69">
-        <v>23.4375</v>
+        <v>55.58035714285714</v>
       </c>
       <c r="E69">
         <v>448</v>
@@ -19844,10 +19844,10 @@
         <v>16</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="D70">
-        <v>0.6696428571428571</v>
+        <v>40.40178571428572</v>
       </c>
       <c r="E70">
         <v>448</v>
@@ -19858,10 +19858,10 @@
         <v>26</v>
       </c>
       <c r="C71">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="D71">
-        <v>40.40178571428572</v>
+        <v>15.84821428571428</v>
       </c>
       <c r="E71">
         <v>448</v>
@@ -19875,10 +19875,10 @@
         <v>22</v>
       </c>
       <c r="C72">
-        <v>83</v>
+        <v>409</v>
       </c>
       <c r="D72">
-        <v>18.52678571428572</v>
+        <v>91.29464285714286</v>
       </c>
       <c r="E72">
         <v>448</v>
@@ -19889,10 +19889,10 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E73">
         <v>448</v>
@@ -19906,10 +19906,10 @@
         <v>23</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="D74">
-        <v>8.705357142857142</v>
+        <v>93.75</v>
       </c>
       <c r="E74">
         <v>448</v>
@@ -19920,10 +19920,10 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="D75">
-        <v>4.464285714285714</v>
+        <v>71.875</v>
       </c>
       <c r="E75">
         <v>448</v>
@@ -19937,10 +19937,10 @@
         <v>22</v>
       </c>
       <c r="C76">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="D76">
-        <v>27.67857142857143</v>
+        <v>89.50892857142857</v>
       </c>
       <c r="E76">
         <v>448</v>
@@ -19951,10 +19951,10 @@
         <v>16</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="D77">
-        <v>7.366071428571429</v>
+        <v>43.75</v>
       </c>
       <c r="E77">
         <v>448</v>
@@ -19968,10 +19968,10 @@
         <v>22</v>
       </c>
       <c r="C78">
-        <v>247</v>
+        <v>407</v>
       </c>
       <c r="D78">
-        <v>55.13392857142857</v>
+        <v>90.84821428571429</v>
       </c>
       <c r="E78">
         <v>448</v>
@@ -19982,10 +19982,10 @@
         <v>18</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E79">
         <v>448</v>
@@ -20013,10 +20013,10 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="D81">
-        <v>70.3125</v>
+        <v>57.8125</v>
       </c>
       <c r="E81">
         <v>448</v>
@@ -20030,10 +20030,10 @@
         <v>26</v>
       </c>
       <c r="C82">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="D82">
-        <v>48.66071428571428</v>
+        <v>35.04464285714285</v>
       </c>
       <c r="E82">
         <v>448</v>
@@ -20044,10 +20044,10 @@
         <v>13</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="D83">
-        <v>0.2232142857142857</v>
+        <v>71.875</v>
       </c>
       <c r="E83">
         <v>448</v>
